--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -83965,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84019,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84073,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84127,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84181,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1495"/>
+  <dimension ref="A1:R1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84193,6 +84193,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>502.3999938964844</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>504</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>496</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>497.1000061035156</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>497.1000061035156</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>292320</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1496"/>
+  <dimension ref="A1:R1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83733,7 +83733,7 @@
         <v>23</v>
       </c>
       <c r="O1487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1487" t="n">
         <v>0</v>
@@ -84245,7 +84245,63 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>497.5499877929688</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>499.9500122070312</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>488.0499877929688</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>491</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>491</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>233250</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1497"/>
+  <dimension ref="A1:R1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84301,7 +84301,387 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>486</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>499.3999938964844</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>486</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>493.6499938964844</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>493.6499938964844</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>254886</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>494.75</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>498.6000061035156</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>488.2000122070312</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>490.4500122070312</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>203441</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>490.3999938964844</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>513.6500244140625</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>490.3999938964844</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>507</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>507</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>1134547</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>512</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>511.0499877929688</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>3571140</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>520.9500122070312</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>523.8499755859375</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>510</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>513.2000122070312</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>513.2000122070312</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>649955</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>514.0999755859375</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>403139</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>504.7000122070312</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>513.9000244140625</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>502.1000061035156</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>504</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>504</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>313757</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -84357,7 +84357,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84411,7 +84413,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84465,7 +84469,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84519,7 +84525,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84573,7 +84581,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84627,7 +84637,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84681,7 +84693,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1504"/>
+  <dimension ref="A1:R1509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84697,6 +84697,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>512.9000244140625</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>504</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>507.8500061035156</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>507.8500061035156</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>394882</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>509</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>517.7000122070312</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>507.6499938964844</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>510.7000122070312</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>510.7000122070312</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>329937</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>512</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>525</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>512</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>515.9500122070312</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>515.9500122070312</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>824762</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>519.9500122070312</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>522</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>510.7000122070312</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>514.75</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>514.75</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>334933</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>514.6500244140625</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>513.2999877929688</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>516.25</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>516.25</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>411202</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1509"/>
+  <dimension ref="A1:R1518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84749,7 +84749,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84803,7 +84805,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84857,7 +84861,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84911,7 +84917,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84965,7 +84973,495 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>516.0499877929688</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>538</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>511.2000122070312</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>524.4000244140625</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>524.4000244140625</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>1196288</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>526.3499755859375</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>519.0499877929688</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>527</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>527</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>910880</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>527.2000122070312</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>529.3499755859375</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>510</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>516.8499755859375</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>516.8499755859375</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>538145</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>520.9000244140625</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>522.4500122070312</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>513</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>514.25</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>514.25</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>314151</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>519.5499877929688</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>503.1000061035156</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>505.25</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>311093</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>515.75</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>508.2999877929688</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>508.2999877929688</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>302819</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>509.2000122070312</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>511.8500061035156</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>505.0499877929688</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>508</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>508</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>210304</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>507</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>507.8999938964844</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>496.5</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>335645</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>490</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>495</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>466.2000122070312</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>473.3999938964844</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>473.3999938964844</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>1854342</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1518"/>
+  <dimension ref="A1:R1528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85021,7 +85021,7 @@
         <v>28</v>
       </c>
       <c r="O1510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1510" t="n">
         <v>0</v>
@@ -85029,7 +85029,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -85083,7 +85085,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85137,7 +85141,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85191,7 +85197,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85245,7 +85253,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85299,7 +85309,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85353,7 +85365,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85407,7 +85421,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85461,7 +85477,549 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>470.1499938964844</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>484</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>464</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>479.7999877929688</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>479.7999877929688</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>424624</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>485.0499877929688</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>534.6500244140625</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>479</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>518</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>518</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>21849333</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>538</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>569.7000122070312</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>533</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>560.2000122070312</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>560.2000122070312</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>13339533</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>553</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>572.9000244140625</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>535.25</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>538.2000122070312</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>538.2000122070312</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>2801996</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>543.5999755859375</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>554.8499755859375</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>534.25</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>541.7999877929688</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>541.7999877929688</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>1278567</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>543</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>553.5499877929688</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>535.0499877929688</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>536.5499877929688</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>536.5499877929688</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>901079</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>536.25</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>562</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>522.1500244140625</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>554.6500244140625</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>554.6500244140625</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>3629246</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>559.9000244140625</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>571.25</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>558</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>558</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>1335311</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>558.0499877929688</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>563</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>541.0999755859375</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>548.9000244140625</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>836880</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>539.9000244140625</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>536.5</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>551.5</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>551.5</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>1051102</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1528"/>
+  <dimension ref="A1:R1533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85525,7 +85525,7 @@
         <v>30</v>
       </c>
       <c r="O1519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1519" t="n">
         <v>0</v>
@@ -85533,7 +85533,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85587,7 +85589,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85641,7 +85645,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85687,7 +85693,7 @@
         <v>30</v>
       </c>
       <c r="O1522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1522" t="n">
         <v>0</v>
@@ -85695,7 +85701,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85749,7 +85757,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85803,7 +85813,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85857,7 +85869,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85911,7 +85925,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85965,7 +85981,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -86019,7 +86037,279 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>519</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>534</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>506</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>509.9500122070312</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>509.9500122070312</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>1421621</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>515.0499877929688</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>523.7000122070312</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>488.8999938964844</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>493.6000061035156</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>493.6000061035156</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>1160598</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>501</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>508.5</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>487.1499938964844</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>497.25</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>497.25</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>975759</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>497.25</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>525.9000244140625</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>497.25</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>509.6000061035156</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>509.6000061035156</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>1624199</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>523</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>523</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>509.9500122070312</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>515.0499877929688</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>515.0499877929688</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>592062</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1533"/>
+  <dimension ref="A1:R1537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86093,7 +86093,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86147,7 +86149,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86201,7 +86205,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86255,7 +86261,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86309,7 +86317,225 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>515.0999755859375</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>522.9000244140625</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>495.5499877929688</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>507.75</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>507.75</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>1618614</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>507</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>509.75</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>494.1000061035156</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>497.0499877929688</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>497.0499877929688</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>502083</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>499.8500061035156</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>486.0499877929688</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>490.7000122070312</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>490.7000122070312</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>396832</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>500</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>515.7000122070312</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>510.3999938964844</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>510.3999938964844</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>810578</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1537"/>
+  <dimension ref="A1:R1542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86373,7 +86373,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86427,7 +86429,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86481,7 +86485,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86535,7 +86541,279 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>512.7999877929688</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>519.2999877929688</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>508</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>515.2999877929688</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>515.2999877929688</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>402921</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>517.9000244140625</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>518</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>510</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>512.6500244140625</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>512.6500244140625</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>258227</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>513.5999755859375</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>517.9500122070312</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>510.6000061035156</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>512.4500122070312</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>512.4500122070312</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>245623</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>514.5999755859375</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>515.6500244140625</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>502.6499938964844</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>504</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>504</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>352179</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>504</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>520.7000122070312</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>513.5499877929688</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>513.5499877929688</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>645684</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1542"/>
+  <dimension ref="A1:R1547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86477,7 +86477,7 @@
         <v>33</v>
       </c>
       <c r="O1536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1536" t="n">
         <v>0</v>
@@ -86597,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86651,7 +86653,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86705,7 +86709,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86759,7 +86765,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86813,7 +86821,279 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>516.7000122070312</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>517.9000244140625</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>506</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>509.2000122070312</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>509.2000122070312</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>222179</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>509</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>513.2999877929688</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>513.2999877929688</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>287460</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>513.25</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>538.7999877929688</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>512.75</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>526.3499755859375</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>526.3499755859375</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>1661099</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>527.9500122070312</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>536</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>519.7000122070312</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>519.7000122070312</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>536287</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>522</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>523.2999877929688</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>512.75</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>513.5</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>513.5</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>262453</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1547"/>
+  <dimension ref="A1:R1552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86877,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86931,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86985,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87039,7 +87045,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87093,7 +87101,279 @@
       <c r="Q1547" t="n">
         <v>1</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>513.2000122070312</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>504.6000061035156</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>506</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>506</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>300288</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>507</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>515.9500122070312</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>504.0499877929688</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>506.5</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>311403</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>503.7999877929688</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>510.4500122070312</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>501.7999877929688</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>207156</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>510</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>515.8499755859375</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>503</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>503.7999877929688</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>503.7999877929688</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>289357</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>504.8999938964844</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>508.2000122070312</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>499.6000061035156</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>499.6000061035156</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>336728</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1552"/>
+  <dimension ref="A1:R1557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86981,7 +86981,7 @@
         <v>35</v>
       </c>
       <c r="O1545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1545" t="n">
         <v>0</v>
@@ -87157,7 +87157,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87211,7 +87213,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87265,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87319,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87373,7 +87381,279 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>496</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>486.25</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>495.1499938964844</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>495.1499938964844</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>270751</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>498.8999938964844</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>506.8500061035156</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>494.75</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>502.9500122070312</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>502.9500122070312</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>337237</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>503.3999938964844</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>524.4000244140625</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>500.1499938964844</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>511.3999938964844</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>511.3999938964844</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>1931926</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>515</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>517.9000244140625</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>509.2000122070312</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>511.3999938964844</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>511.3999938964844</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>241478</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>513.75</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>514.7999877929688</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>502</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>313393</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1557"/>
+  <dimension ref="A1:R1562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87437,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87491,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87545,7 +87549,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87599,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87653,7 +87661,279 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>504.3999938964844</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>520</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>505.7000122070312</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>505.7000122070312</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>531650</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>505.7000122070312</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>508</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>500.1000061035156</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>501.6000061035156</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>501.6000061035156</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>210115</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>501.6000061035156</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>504.7000122070312</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>494.6000061035156</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>500.2999877929688</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>500.2999877929688</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>299616</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>500.3999938964844</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>506.8999938964844</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>492.2000122070312</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>498.0499877929688</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>372371</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>498.75</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>508.8500061035156</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>496.1499938964844</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>311818</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1562"/>
+  <dimension ref="A1:R1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87429,7 +87429,7 @@
         <v>37</v>
       </c>
       <c r="O1553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1553" t="n">
         <v>0</v>
@@ -87717,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87771,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87825,7 +87829,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87879,7 +87885,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87933,7 +87941,279 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>499.6000061035156</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>502.7000122070312</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>493.2000122070312</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>496.8500061035156</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>496.8500061035156</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>327605</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>499.8500061035156</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>500.5</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>495.0499877929688</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>496.7999877929688</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>496.7999877929688</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>152212</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>496.7000122070312</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>507</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>494.5499877929688</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>502.3999938964844</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>502.3999938964844</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>413244</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>503.4500122070312</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>510.4500122070312</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>496.4500122070312</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>314271</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>498.9500122070312</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>500.4500122070312</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>489.6000061035156</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>492.0499877929688</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>492.0499877929688</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>410681</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1567"/>
+  <dimension ref="A1:R1571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87997,7 +87997,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -88051,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>1</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88105,7 +88109,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -88159,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88213,7 +88221,225 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>492.0499877929688</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>496.5</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>489</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>491.7000122070312</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>491.7000122070312</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>132472</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>494.4500122070312</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>495.7000122070312</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>487.9500122070312</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>489.7999877929688</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>489.7999877929688</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>192535</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>487</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>489.8999938964844</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>478.25</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>478.25</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>273753</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>478</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>479.5499877929688</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>465.0499877929688</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>470.8999938964844</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>470.8999938964844</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>283031</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1571"/>
+  <dimension ref="A1:R1576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88277,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88331,7 +88333,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88385,7 +88389,9 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
@@ -88439,7 +88445,279 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>472</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>474.7000122070312</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>447</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>448.8500061035156</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>419670</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>448.5499877929688</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>464</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>445.7999877929688</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>461.8500061035156</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>461.8500061035156</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>229069</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>462.0499877929688</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>473.4500122070312</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>462.0499877929688</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>465.5499877929688</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>465.5499877929688</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>183601</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>465.5499877929688</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>474.25</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>465.5499877929688</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>467.8500061035156</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>467.8500061035156</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>108601</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>467.9500122070312</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>468</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>460.25</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>461.8999938964844</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>461.8999938964844</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>179583</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1576"/>
+  <dimension ref="A1:R1581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88501,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88555,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88609,7 +88613,9 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
@@ -88663,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88717,7 +88725,279 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>465</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>467.9500122070312</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>461</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>462</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>462</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>108663</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>462.8999938964844</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>470.8999938964844</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>460.5</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>461.3500061035156</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>461.3500061035156</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>132002</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>460.1499938964844</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>461.8500061035156</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>450.9500122070312</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>453.8999938964844</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>453.8999938964844</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>253852</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>453.5</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>454.6499938964844</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>447.7000122070312</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>450.3500061035156</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>450.3500061035156</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>139239</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>444.8999938964844</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>461.1000061035156</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>438.4500122070312</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>458.2000122070312</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>458.2000122070312</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>271194</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1581"/>
+  <dimension ref="A1:R1586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88781,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88835,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88889,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88943,7 +88949,9 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
@@ -88997,7 +89005,279 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>464.6499938964844</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>443</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>445.8500061035156</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>445.8500061035156</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>191830</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>446.8500061035156</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>446.8500061035156</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>429.1000061035156</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>312424</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>427.75</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>436.0499877929688</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>415.9500122070312</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>432.7000122070312</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>432.7000122070312</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>250608</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>424.2000122070312</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>431.3999938964844</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>418.25</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>420.75</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>420.75</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>213877</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>420</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>424.7000122070312</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>402.7999877929688</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>411.5499877929688</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>411.5499877929688</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>392003</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1586"/>
+  <dimension ref="A1:R1591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89061,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89115,7 +89117,9 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
@@ -89169,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89223,7 +89229,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -89277,7 +89285,279 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>411.5499877929688</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>419.9500122070312</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>408.25</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>214929</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>416.9500122070312</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>424.25</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>414.3500061035156</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>422.0499877929688</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>422.0499877929688</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>162436</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>425</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>443.3999938964844</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>420.6000061035156</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>437.3500061035156</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>437.3500061035156</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>317918</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>437</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>446.6000061035156</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>446.6000061035156</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>445577</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>448.7999877929688</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>454.8999938964844</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>454.5</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>43008</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1591"/>
+  <dimension ref="A1:R1596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89277,7 +89277,7 @@
         <v>43</v>
       </c>
       <c r="O1586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1586" t="n">
         <v>0</v>
@@ -89341,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89395,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89449,7 +89453,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89503,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89557,7 +89565,279 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>460</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>460</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>442</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>443.1499938964844</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>443.1499938964844</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>182156</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>443.1499938964844</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>448.2000122070312</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>435.3500061035156</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>440.5</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>334370</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>465.7999877929688</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>443.9500122070312</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>456.0499877929688</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>456.0499877929688</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>454921</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>456.9500122070312</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>473.7000122070312</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>452.1000061035156</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>468.0499877929688</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>468.0499877929688</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>663067</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>474</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>479.75</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>461.0499877929688</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>467.1499938964844</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>467.1499938964844</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>531755</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1596"/>
+  <dimension ref="A1:R1600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89621,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89675,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89729,7 +89733,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89783,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89837,7 +89845,225 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>469</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>514.7999877929688</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>454.75</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>503.1000061035156</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>503.1000061035156</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>4636230</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>494.9500122070312</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>496.9500122070312</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>465.1000061035156</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>470.1499938964844</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>470.1499938964844</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>739386</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>462.5</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>469.3999938964844</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>442</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>442</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>390310</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>442.75</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>453.1000061035156</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>440.2999877929688</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>442.3999938964844</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>442.3999938964844</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>245566</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1600"/>
+  <dimension ref="A1:R1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89901,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>1</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89955,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -90009,7 +90013,9 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -90063,7 +90069,225 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>441.3500061035156</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>441.3999938964844</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>429.3999938964844</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>434</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>434</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>189150</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>435.1499938964844</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>449.4500122070312</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>435.1499938964844</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>439.6499938964844</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>439.6499938964844</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>204938</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>439.6499938964844</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>440.0499877929688</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>423.75</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>427.2000122070312</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>427.2000122070312</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>266343</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>434.0499877929688</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>424.6499938964844</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>430.25</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>430.25</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>153730</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1604"/>
+  <dimension ref="A1:R1609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89893,7 +89893,7 @@
         <v>46</v>
       </c>
       <c r="O1597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1597" t="n">
         <v>1</v>
@@ -90125,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90179,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90233,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90287,7 +90293,279 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>439.7000122070312</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>447.9500122070312</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>433.8500061035156</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>232727</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>444</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>444.8500061035156</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>435.2000122070312</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>436.2999877929688</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>436.2999877929688</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>169071</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>436.75</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>436.5</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>441.8999938964844</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>441.8999938964844</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>174450</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>448</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>451.2999877929688</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>438.6000061035156</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>442.1499938964844</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>283368</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>442</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>439.1000061035156</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>442</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>442</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>136417</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1609"/>
+  <dimension ref="A1:R1614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90229,7 +90229,7 @@
         <v>47</v>
       </c>
       <c r="O1603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1603" t="n">
         <v>0</v>
@@ -90349,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90403,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90457,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90511,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90565,7 +90573,279 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>442.75</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>445</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>436.6000061035156</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>440.6000061035156</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>440.6000061035156</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>193644</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>442</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>479.3999938964844</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>441</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>474.7999877929688</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>474.7999877929688</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>1298544</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>496.7999877929688</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>474</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>487.75</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>487.75</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>865982</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>498</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>527.9000244140625</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>493.3999938964844</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>512.0499877929688</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>512.0499877929688</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>4253080</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>536</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>558.8499755859375</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>529</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>554.5499877929688</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>554.5499877929688</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>7978989</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1614"/>
+  <dimension ref="A1:R1624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90629,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90683,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90737,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90791,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90845,7 +90853,529 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>554.5499877929688</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>582</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>546.75</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>572.9500122070312</v>
+      </c>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="n">
+        <v>3450194</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>580.4000244140625</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>599.9000244140625</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>579.1500244140625</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>592.5499877929688</v>
+      </c>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="n">
+        <v>4262872</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>593</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>593.5</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>565.0499877929688</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>589.75</v>
+      </c>
+      <c r="F1617" t="inlineStr"/>
+      <c r="G1617" t="n">
+        <v>1785011</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>583.0999755859375</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>598.9500122070312</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>576.7999877929688</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>593.1500244140625</v>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="n">
+        <v>1085802</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>588.0499877929688</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>598.5</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>577.7999877929688</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>596.75</v>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="n">
+        <v>1048639</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>602.7000122070312</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>604.4000244140625</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>579</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>588.1500244140625</v>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="n">
+        <v>917857</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>585.0499877929688</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>622</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>582.0499877929688</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>618.4000244140625</v>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="n">
+        <v>1924693</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>625</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>643.9000244140625</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>609.5999755859375</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>627.1500244140625</v>
+      </c>
+      <c r="F1622" t="inlineStr"/>
+      <c r="G1622" t="n">
+        <v>1739053</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>628</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>630.0499877929688</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>605.5499877929688</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>609.7000122070312</v>
+      </c>
+      <c r="F1623" t="inlineStr"/>
+      <c r="G1623" t="n">
+        <v>1539337</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>610</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>613.2000122070312</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>587.7999877929688</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>602.5</v>
+      </c>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="n">
+        <v>753496</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1624"/>
+  <dimension ref="A1:R1628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90907,7 +90907,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90959,7 +90961,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -91011,7 +91015,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91063,7 +91069,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91115,7 +91123,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91167,7 +91177,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91219,7 +91231,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91271,7 +91285,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91323,7 +91339,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91375,7 +91393,217 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>607.7999877929688</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>609.9500122070312</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>581.2000122070312</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>591.3499755859375</v>
+      </c>
+      <c r="F1625" t="inlineStr"/>
+      <c r="G1625" t="n">
+        <v>786651</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>591.4500122070312</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>599</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>572.25</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>579.4000244140625</v>
+      </c>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="n">
+        <v>384805</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>580.2999877929688</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>585.7999877929688</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>560</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>565.7999877929688</v>
+      </c>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="n">
+        <v>459557</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>565</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>576.3499755859375</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>546.1500244140625</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>566.5499877929688</v>
+      </c>
+      <c r="F1628" t="inlineStr"/>
+      <c r="G1628" t="n">
+        <v>678392</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1628"/>
+  <dimension ref="A1:R1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91277,7 +91277,7 @@
         <v>51</v>
       </c>
       <c r="O1622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1622" t="n">
         <v>0</v>
@@ -91447,7 +91447,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91499,7 +91501,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91551,7 +91555,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91603,7 +91609,269 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>574.3499755859375</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>542.5999755859375</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="n">
+        <v>344160</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>542</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>569</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>529.5999755859375</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>560.4500122070312</v>
+      </c>
+      <c r="F1630" t="inlineStr"/>
+      <c r="G1630" t="n">
+        <v>274880</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>571.7999877929688</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>554</v>
+      </c>
+      <c r="F1631" t="inlineStr"/>
+      <c r="G1631" t="n">
+        <v>138433</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>556</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>563.5999755859375</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>545</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>547.4500122070312</v>
+      </c>
+      <c r="F1632" t="inlineStr"/>
+      <c r="G1632" t="n">
+        <v>96208</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>542.0499877929688</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>541.5999755859375</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="F1633" t="inlineStr"/>
+      <c r="G1633" t="n">
+        <v>458062</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1633"/>
+  <dimension ref="A1:R1638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91663,7 +91663,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91715,7 +91717,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91767,7 +91771,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91819,7 +91825,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91871,7 +91879,269 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>548.4000244140625</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>553.7999877929688</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>521</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>521</v>
+      </c>
+      <c r="F1634" t="inlineStr"/>
+      <c r="G1634" t="n">
+        <v>208234</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>519.9500122070312</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>547.0499877929688</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>494.9500122070312</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>547.0499877929688</v>
+      </c>
+      <c r="F1635" t="inlineStr"/>
+      <c r="G1635" t="n">
+        <v>436842</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>558</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>550</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>574.4000244140625</v>
+      </c>
+      <c r="F1636" t="inlineStr"/>
+      <c r="G1636" t="n">
+        <v>310506</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>603.0999755859375</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>603.0999755859375</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="F1637" t="inlineStr"/>
+      <c r="G1637" t="n">
+        <v>611508</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>588</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>611.9500122070312</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>567</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>581.2999877929688</v>
+      </c>
+      <c r="F1638" t="inlineStr"/>
+      <c r="G1638" t="n">
+        <v>421643</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1638"/>
+  <dimension ref="A1:R1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91933,7 +91933,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -91985,7 +91987,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92037,7 +92041,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92089,7 +92095,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92141,7 +92149,269 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>581</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>552.25</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>554.9000244140625</v>
+      </c>
+      <c r="F1639" t="inlineStr"/>
+      <c r="G1639" t="n">
+        <v>285514</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>557.7000122070312</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>582.5999755859375</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>557.7000122070312</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>582.5999755859375</v>
+      </c>
+      <c r="F1640" t="inlineStr"/>
+      <c r="G1640" t="n">
+        <v>318531</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>602.8499755859375</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>604</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>573</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>576.7999877929688</v>
+      </c>
+      <c r="F1641" t="inlineStr"/>
+      <c r="G1641" t="n">
+        <v>472928</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>580</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>599.4000244140625</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>574.0499877929688</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>591.2999877929688</v>
+      </c>
+      <c r="F1642" t="inlineStr"/>
+      <c r="G1642" t="n">
+        <v>205739</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>588.9000244140625</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>569</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>573.7000122070312</v>
+      </c>
+      <c r="F1643" t="inlineStr"/>
+      <c r="G1643" t="n">
+        <v>135122</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1643"/>
+  <dimension ref="A1:R1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91979,7 +91979,7 @@
         <v>2</v>
       </c>
       <c r="O1635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1635" t="n">
         <v>0</v>
@@ -92141,7 +92141,7 @@
         <v>2</v>
       </c>
       <c r="O1638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1638" t="n">
         <v>0</v>
@@ -92203,7 +92203,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92255,7 +92257,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92307,7 +92311,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92359,7 +92365,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92411,7 +92419,269 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>573</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>578.9500122070312</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>558.0499877929688</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>564.2999877929688</v>
+      </c>
+      <c r="F1644" t="inlineStr"/>
+      <c r="G1644" t="n">
+        <v>139211</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>568</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>578</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>540.5499877929688</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>545.0499877929688</v>
+      </c>
+      <c r="F1645" t="inlineStr"/>
+      <c r="G1645" t="n">
+        <v>155435</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>542.1500244140625</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>563.9500122070312</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>520.0499877929688</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>549.2999877929688</v>
+      </c>
+      <c r="F1646" t="inlineStr"/>
+      <c r="G1646" t="n">
+        <v>266264</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>537</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>563.9000244140625</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>534.1500244140625</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>539.5499877929688</v>
+      </c>
+      <c r="F1647" t="inlineStr"/>
+      <c r="G1647" t="n">
+        <v>174366</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>544.9500122070312</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>548.7000122070312</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>515.5999755859375</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>518.3499755859375</v>
+      </c>
+      <c r="F1648" t="inlineStr"/>
+      <c r="G1648" t="n">
+        <v>145524</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1648"/>
+  <dimension ref="A1:R1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92473,7 +92473,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92525,7 +92527,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92577,7 +92581,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92629,7 +92635,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92681,7 +92689,269 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>513</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>518.5499877929688</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>492.4500122070312</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="F1649" t="inlineStr"/>
+      <c r="G1649" t="n">
+        <v>150833</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>501</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>484.5499877929688</v>
+      </c>
+      <c r="F1650" t="inlineStr"/>
+      <c r="G1650" t="n">
+        <v>273179</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>480</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>508.75</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>478.3999938964844</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>506.7999877929688</v>
+      </c>
+      <c r="F1651" t="inlineStr"/>
+      <c r="G1651" t="n">
+        <v>157144</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>506.7999877929688</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>518</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>498</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>506.3500061035156</v>
+      </c>
+      <c r="F1652" t="inlineStr"/>
+      <c r="G1652" t="n">
+        <v>133839</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>508</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>531</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>528.2999877929688</v>
+      </c>
+      <c r="F1653" t="inlineStr"/>
+      <c r="G1653" t="n">
+        <v>151649</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1653"/>
+  <dimension ref="A1:R1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92743,7 +92743,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92795,7 +92797,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92847,7 +92851,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92899,7 +92905,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -92951,7 +92959,321 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>537</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>543.5</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>510</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>513.1500244140625</v>
+      </c>
+      <c r="F1654" t="inlineStr"/>
+      <c r="G1654" t="n">
+        <v>117664</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>505</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>511.9500122070312</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>492</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>494</v>
+      </c>
+      <c r="F1655" t="inlineStr"/>
+      <c r="G1655" t="n">
+        <v>122366</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>491</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>518.4000244140625</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>491</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>514.5999755859375</v>
+      </c>
+      <c r="F1656" t="inlineStr"/>
+      <c r="G1656" t="n">
+        <v>137505</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>525</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>540</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>511.0499877929688</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>533.5999755859375</v>
+      </c>
+      <c r="F1657" t="inlineStr"/>
+      <c r="G1657" t="n">
+        <v>153959</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>534.25</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>559</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>528.5999755859375</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>549.75</v>
+      </c>
+      <c r="F1658" t="inlineStr"/>
+      <c r="G1658" t="n">
+        <v>197491</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>549.75</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>568</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>535</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>558.6500244140625</v>
+      </c>
+      <c r="F1659" t="inlineStr"/>
+      <c r="G1659" t="n">
+        <v>255389</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1659"/>
+  <dimension ref="A1:R1664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92789,7 +92789,7 @@
         <v>5</v>
       </c>
       <c r="O1650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1650" t="n">
         <v>0</v>
@@ -93013,7 +93013,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93065,7 +93067,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93117,7 +93121,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93169,7 +93175,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93221,7 +93229,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93273,7 +93283,269 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>558</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>558.6500244140625</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>546.5499877929688</v>
+      </c>
+      <c r="F1660" t="inlineStr"/>
+      <c r="G1660" t="n">
+        <v>158379</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>536</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>544.9000244140625</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>519.25</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>519.25</v>
+      </c>
+      <c r="F1661" t="inlineStr"/>
+      <c r="G1661" t="n">
+        <v>52378</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>545.2000122070312</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>493.2999877929688</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>529.8499755859375</v>
+      </c>
+      <c r="F1662" t="inlineStr"/>
+      <c r="G1662" t="n">
+        <v>517528</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>539.9000244140625</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>503.3500061035156</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>503.5</v>
+      </c>
+      <c r="F1663" t="inlineStr"/>
+      <c r="G1663" t="n">
+        <v>288492</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>506</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>512.9500122070312</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>487.75</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>497.2999877929688</v>
+      </c>
+      <c r="F1664" t="inlineStr"/>
+      <c r="G1664" t="n">
+        <v>178707</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1664"/>
+  <dimension ref="A1:R1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93337,7 +93337,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93389,7 +93391,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93441,7 +93445,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93493,7 +93499,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93545,7 +93553,269 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>475</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>484.3999938964844</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>472.4500122070312</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>476.6000061035156</v>
+      </c>
+      <c r="F1665" t="inlineStr"/>
+      <c r="G1665" t="n">
+        <v>249645</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>490.8999938964844</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>500.3999938964844</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>483</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>500.3999938964844</v>
+      </c>
+      <c r="F1666" t="inlineStr"/>
+      <c r="G1666" t="n">
+        <v>171742</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>518.9500122070312</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>525.4000244140625</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>515</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>525.4000244140625</v>
+      </c>
+      <c r="F1667" t="inlineStr"/>
+      <c r="G1667" t="n">
+        <v>64102</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>551.6500244140625</v>
+      </c>
+      <c r="F1668" t="inlineStr"/>
+      <c r="G1668" t="n">
+        <v>74627</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>562</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>573</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>541</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>549.8499755859375</v>
+      </c>
+      <c r="F1669" t="inlineStr"/>
+      <c r="G1669" t="n">
+        <v>246749</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1669"/>
+  <dimension ref="A1:R1678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93599,7 +93599,7 @@
         <v>8</v>
       </c>
       <c r="O1665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1665" t="n">
         <v>0</v>
@@ -93607,7 +93607,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93659,7 +93661,9 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93711,7 +93715,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93763,7 +93769,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93815,7 +93823,477 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>541</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>560</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>530</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>548.2999877929688</v>
+      </c>
+      <c r="F1670" t="inlineStr"/>
+      <c r="G1670" t="n">
+        <v>158215</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>539</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>555</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>539</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>548.75</v>
+      </c>
+      <c r="F1671" t="inlineStr"/>
+      <c r="G1671" t="n">
+        <v>98634</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>536.9000244140625</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>554.4500122070312</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>521.3499755859375</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>524.0499877929688</v>
+      </c>
+      <c r="F1672" t="inlineStr"/>
+      <c r="G1672" t="n">
+        <v>178400</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>506.2999877929688</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>498</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="F1673" t="inlineStr"/>
+      <c r="G1673" t="n">
+        <v>183162</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>502</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>516</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>480.0499877929688</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>497.3500061035156</v>
+      </c>
+      <c r="F1674" t="inlineStr"/>
+      <c r="G1674" t="n">
+        <v>131142</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>489.9500122070312</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>480</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>522.2000122070312</v>
+      </c>
+      <c r="F1675" t="inlineStr"/>
+      <c r="G1675" t="n">
+        <v>132261</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>511.25</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>541</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>511.25</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>535.3499755859375</v>
+      </c>
+      <c r="F1676" t="inlineStr"/>
+      <c r="G1676" t="n">
+        <v>142665</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>545</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>548.25</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>509.9500122070312</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>534.8499755859375</v>
+      </c>
+      <c r="F1677" t="inlineStr"/>
+      <c r="G1677" t="n">
+        <v>109580</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>534.7999877929688</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>545</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>522.9500122070312</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>535.2999877929688</v>
+      </c>
+      <c r="F1678" t="inlineStr"/>
+      <c r="G1678" t="n">
+        <v>111771</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1678"/>
+  <dimension ref="A1:R1687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93815,7 +93815,7 @@
         <v>8</v>
       </c>
       <c r="O1669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1669" t="n">
         <v>0</v>
@@ -93877,7 +93877,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -93929,7 +93931,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -93981,7 +93985,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94033,7 +94039,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94085,7 +94093,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94137,7 +94147,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94189,7 +94201,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94241,7 +94255,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94293,7 +94309,477 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>535.9000244140625</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>544.9500122070312</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>519</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>521.9000244140625</v>
+      </c>
+      <c r="F1679" t="inlineStr"/>
+      <c r="G1679" t="n">
+        <v>64610</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>512.0499877929688</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>529.9000244140625</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>501.25</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>527.4000244140625</v>
+      </c>
+      <c r="F1680" t="inlineStr"/>
+      <c r="G1680" t="n">
+        <v>65035</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>520.5</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>535</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>505.1000061035156</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>515.5499877929688</v>
+      </c>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="n">
+        <v>67103</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>510.1499938964844</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>523</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>501.1000061035156</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>505.6000061035156</v>
+      </c>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="n">
+        <v>70054</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>508</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>520</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>491</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>499.4500122070312</v>
+      </c>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="n">
+        <v>121471</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>499.4500122070312</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>499.4500122070312</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>499.4500122070312</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>499.4500122070312</v>
+      </c>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>516.7999877929688</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>530</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>504</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>524.75</v>
+      </c>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="n">
+        <v>126265</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>522.5</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>534.4000244140625</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="n">
+        <v>86364</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>515.5499877929688</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>504</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="n">
+        <v>164965</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1687"/>
+  <dimension ref="A1:R1696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94363,7 +94363,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94415,7 +94417,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94467,7 +94471,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94519,7 +94525,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94571,7 +94579,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94623,7 +94633,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94675,7 +94687,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94727,7 +94741,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94779,7 +94795,477 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>511.0499877929688</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>529</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>511.0499877929688</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>526.6500244140625</v>
+      </c>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="n">
+        <v>164044</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>531</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>531</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>500.3500061035156</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>510.25</v>
+      </c>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="n">
+        <v>159015</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>510.0499877929688</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>494</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>495.8500061035156</v>
+      </c>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="n">
+        <v>195431</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>496.0499877929688</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>502.0499877929688</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>485</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>492.1000061035156</v>
+      </c>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="n">
+        <v>342385</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>487.4500122070312</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>499.3999938964844</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>476</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>478.4500122070312</v>
+      </c>
+      <c r="F1692" t="inlineStr"/>
+      <c r="G1692" t="n">
+        <v>215219</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>479.9500122070312</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>502.3500061035156</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>476.6000061035156</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>501.2999877929688</v>
+      </c>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="n">
+        <v>203544</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>502.3999938964844</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>514.4000244140625</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>492.5499877929688</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>509.75</v>
+      </c>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="n">
+        <v>222008</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>497.1000061035156</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>514</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>497.1000061035156</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="n">
+        <v>93362</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>507.3500061035156</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>514.9500122070312</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>488.1000061035156</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>490.5</v>
+      </c>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="n">
+        <v>189517</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1696"/>
+  <dimension ref="A1:R1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94849,7 +94849,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -94901,7 +94903,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -94953,7 +94957,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95005,7 +95011,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95057,7 +95065,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95109,7 +95119,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95161,7 +95173,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95213,7 +95227,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95265,7 +95281,217 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>480.4500122070312</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>441.4500122070312</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>463.6499938964844</v>
+      </c>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="n">
+        <v>299525</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>493.8999938964844</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>493.8999938964844</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>457.8500061035156</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>472</v>
+      </c>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="n">
+        <v>369270</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>474.9500122070312</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>475</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>459.0499877929688</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>462</v>
+      </c>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="n">
+        <v>136118</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>479.9500122070312</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>483.7000122070312</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>464.1000061035156</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>478.6499938964844</v>
+      </c>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="n">
+        <v>186145</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1700"/>
+  <dimension ref="A1:R1703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95335,7 +95335,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95387,7 +95389,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95439,7 +95443,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95491,7 +95497,165 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>488</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>508.1000061035156</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>479.5499877929688</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>502.8999938964844</v>
+      </c>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="n">
+        <v>231967</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>495.2999877929688</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>507.9500122070312</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>495.2999877929688</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>499.7000122070312</v>
+      </c>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="n">
+        <v>116707</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>500</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>527</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>498.1000061035156</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="n">
+        <v>313861</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1703"/>
+  <dimension ref="A1:R1712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="R205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="R272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="R409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -28470,7 +28470,7 @@
         <v>0</v>
       </c>
       <c r="R500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -31046,7 +31046,7 @@
         <v>0</v>
       </c>
       <c r="R546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -33342,7 +33342,7 @@
         <v>0</v>
       </c>
       <c r="R587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -37878,7 +37878,7 @@
         <v>0</v>
       </c>
       <c r="R668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -38830,7 +38830,7 @@
         <v>0</v>
       </c>
       <c r="R685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -40118,7 +40118,7 @@
         <v>0</v>
       </c>
       <c r="R708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -41126,7 +41126,7 @@
         <v>0</v>
       </c>
       <c r="R726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -42302,7 +42302,7 @@
         <v>0</v>
       </c>
       <c r="R747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -51934,7 +51934,7 @@
         <v>0</v>
       </c>
       <c r="R919" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
@@ -53110,7 +53110,7 @@
         <v>0</v>
       </c>
       <c r="R940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -55910,7 +55910,7 @@
         <v>1</v>
       </c>
       <c r="R990" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991">
@@ -62742,7 +62742,7 @@
         <v>2</v>
       </c>
       <c r="R1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
@@ -63302,7 +63302,7 @@
         <v>1</v>
       </c>
       <c r="R1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -66102,7 +66102,7 @@
         <v>2</v>
       </c>
       <c r="R1172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -66662,7 +66662,7 @@
         <v>1</v>
       </c>
       <c r="R1182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183">
@@ -67502,7 +67502,7 @@
         <v>2</v>
       </c>
       <c r="R1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198">
@@ -69070,7 +69070,7 @@
         <v>0</v>
       </c>
       <c r="R1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226">
@@ -71254,7 +71254,7 @@
         <v>2</v>
       </c>
       <c r="R1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265">
@@ -72430,7 +72430,7 @@
         <v>0</v>
       </c>
       <c r="R1285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1295">
@@ -73998,7 +73998,7 @@
         <v>0</v>
       </c>
       <c r="R1313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -75118,7 +75118,7 @@
         <v>2</v>
       </c>
       <c r="R1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1334">
@@ -76182,7 +76182,7 @@
         <v>1</v>
       </c>
       <c r="R1352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1353">
@@ -77246,7 +77246,7 @@
         <v>1</v>
       </c>
       <c r="R1371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372">
@@ -77638,7 +77638,7 @@
         <v>0</v>
       </c>
       <c r="R1378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379">
@@ -78310,7 +78310,7 @@
         <v>1</v>
       </c>
       <c r="R1390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391">
@@ -87102,7 +87102,7 @@
         <v>1</v>
       </c>
       <c r="R1547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1548">
@@ -94202,7 +94202,7 @@
         <v>0</v>
       </c>
       <c r="R1676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677">
@@ -95327,7 +95327,7 @@
         <v>15</v>
       </c>
       <c r="O1697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1697" t="n">
         <v>0</v>
@@ -95551,7 +95551,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95603,7 +95605,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95655,7 +95659,477 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>516.75</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>523.4500122070312</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>509</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>514.6500244140625</v>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="n">
+        <v>286489</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>520</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>547.5</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>514.8499755859375</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>527.0999755859375</v>
+      </c>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="n">
+        <v>431696</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>531.4500122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>532.5499877929688</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>513.3499755859375</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>520.5</v>
+      </c>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="n">
+        <v>200031</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>523.7999877929688</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>513.5</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>515.7000122070312</v>
+      </c>
+      <c r="F1707" t="inlineStr"/>
+      <c r="G1707" t="n">
+        <v>152043</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>516</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>519.7999877929688</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>493</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>511.1000061035156</v>
+      </c>
+      <c r="F1708" t="inlineStr"/>
+      <c r="G1708" t="n">
+        <v>269403</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>502.1000061035156</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>510.3500061035156</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>501</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>503.7000122070312</v>
+      </c>
+      <c r="F1709" t="inlineStr"/>
+      <c r="G1709" t="n">
+        <v>107117</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>503</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>513.7999877929688</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>495</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>499.5</v>
+      </c>
+      <c r="F1710" t="inlineStr"/>
+      <c r="G1710" t="n">
+        <v>123563</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>511</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>511</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>487</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>492.25</v>
+      </c>
+      <c r="F1711" t="inlineStr"/>
+      <c r="G1711" t="n">
+        <v>195296</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>496</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>467.8999938964844</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>483.9500122070312</v>
+      </c>
+      <c r="F1712" t="inlineStr"/>
+      <c r="G1712" t="n">
+        <v>146794</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/BORORENEW.NS.xlsx
+++ b/stock_historical_data/1d/BORORENEW.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1712"/>
+  <dimension ref="A1:R1722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="R205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -15702,7 +15702,7 @@
         <v>1</v>
       </c>
       <c r="R272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="R409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -28470,7 +28470,7 @@
         <v>0</v>
       </c>
       <c r="R500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -31046,7 +31046,7 @@
         <v>0</v>
       </c>
       <c r="R546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -33342,7 +33342,7 @@
         <v>0</v>
       </c>
       <c r="R587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -37878,7 +37878,7 @@
         <v>0</v>
       </c>
       <c r="R668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -38830,7 +38830,7 @@
         <v>0</v>
       </c>
       <c r="R685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686">
@@ -40118,7 +40118,7 @@
         <v>0</v>
       </c>
       <c r="R708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -41126,7 +41126,7 @@
         <v>0</v>
       </c>
       <c r="R726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -42302,7 +42302,7 @@
         <v>0</v>
       </c>
       <c r="R747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -51934,7 +51934,7 @@
         <v>0</v>
       </c>
       <c r="R919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -53110,7 +53110,7 @@
         <v>0</v>
       </c>
       <c r="R940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -55910,7 +55910,7 @@
         <v>1</v>
       </c>
       <c r="R990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -62742,7 +62742,7 @@
         <v>2</v>
       </c>
       <c r="R1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113">
@@ -63302,7 +63302,7 @@
         <v>1</v>
       </c>
       <c r="R1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123">
@@ -66102,7 +66102,7 @@
         <v>2</v>
       </c>
       <c r="R1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173">
@@ -66662,7 +66662,7 @@
         <v>1</v>
       </c>
       <c r="R1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183">
@@ -67502,7 +67502,7 @@
         <v>2</v>
       </c>
       <c r="R1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198">
@@ -69070,7 +69070,7 @@
         <v>0</v>
       </c>
       <c r="R1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226">
@@ -71254,7 +71254,7 @@
         <v>2</v>
       </c>
       <c r="R1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -72430,7 +72430,7 @@
         <v>0</v>
       </c>
       <c r="R1285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286">
@@ -72934,7 +72934,7 @@
         <v>2</v>
       </c>
       <c r="R1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -73998,7 +73998,7 @@
         <v>0</v>
       </c>
       <c r="R1313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314">
@@ -75118,7 +75118,7 @@
         <v>2</v>
       </c>
       <c r="R1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -76182,7 +76182,7 @@
         <v>1</v>
       </c>
       <c r="R1352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353">
@@ -77246,7 +77246,7 @@
         <v>1</v>
       </c>
       <c r="R1371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1372">
@@ -77638,7 +77638,7 @@
         <v>0</v>
       </c>
       <c r="R1378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
@@ -78310,7 +78310,7 @@
         <v>1</v>
       </c>
       <c r="R1390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391">
@@ -87102,7 +87102,7 @@
         <v>1</v>
       </c>
       <c r="R1547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548">
@@ -94202,7 +94202,7 @@
         <v>0</v>
       </c>
       <c r="R1676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1677">
@@ -95713,7 +95713,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95757,7 +95759,7 @@
         <v>17</v>
       </c>
       <c r="O1705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1705" t="n">
         <v>0</v>
@@ -95765,7 +95767,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95817,7 +95821,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -95869,7 +95875,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -95921,7 +95929,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -95973,7 +95983,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96025,7 +96037,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96077,7 +96091,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96129,7 +96145,529 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>485.9500122070312</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>499.8999938964844</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>484</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>489.7000122070312</v>
+      </c>
+      <c r="F1713" t="inlineStr"/>
+      <c r="G1713" t="n">
+        <v>136558</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>492.1499938964844</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>497.1499938964844</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>471.4500122070312</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>477.0499877929688</v>
+      </c>
+      <c r="F1714" t="inlineStr"/>
+      <c r="G1714" t="n">
+        <v>119436</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>471.1499938964844</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>485.7000122070312</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>465.1499938964844</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>484.0499877929688</v>
+      </c>
+      <c r="F1715" t="inlineStr"/>
+      <c r="G1715" t="n">
+        <v>134017</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>486</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>510.0499877929688</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>480.75</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>484.25</v>
+      </c>
+      <c r="F1716" t="inlineStr"/>
+      <c r="G1716" t="n">
+        <v>393606</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>468.8999938964844</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>532.6500244140625</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>465</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>532.5499877929688</v>
+      </c>
+      <c r="F1717" t="inlineStr"/>
+      <c r="G1717" t="n">
+        <v>1521212</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>548</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>565.4000244140625</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>535.2000122070312</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>542.6500244140625</v>
+      </c>
+      <c r="F1718" t="inlineStr"/>
+      <c r="G1718" t="n">
+        <v>889135</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>540</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>549.9500122070312</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>513</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>521.25</v>
+      </c>
+      <c r="F1719" t="inlineStr"/>
+      <c r="G1719" t="n">
+        <v>793379</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>526.7000122070312</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>553.7999877929688</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>524.4500122070312</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>548.9500122070312</v>
+      </c>
+      <c r="F1720" t="inlineStr"/>
+      <c r="G1720" t="n">
+        <v>508687</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>550</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>566</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>546.0499877929688</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>550.5499877929688</v>
+      </c>
+      <c r="F1721" t="inlineStr"/>
+      <c r="G1721" t="n">
+        <v>782981</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>553</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>583.75</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>544.0499877929688</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>572.5499877929688</v>
+      </c>
+      <c r="F1722" t="inlineStr"/>
+      <c r="G1722" t="n">
+        <v>765918</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
